--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q2">
-        <v>0.03534621442044444</v>
+        <v>3.913163275840668</v>
       </c>
       <c r="R2">
-        <v>0.318115929784</v>
+        <v>35.21846948256601</v>
       </c>
       <c r="S2">
-        <v>3.176793120059577E-07</v>
+        <v>2.471578152271855E-05</v>
       </c>
       <c r="T2">
-        <v>3.176793120059577E-07</v>
+        <v>2.471578152271855E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N3">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q3">
-        <v>87.93924022363646</v>
+        <v>407.0043317470644</v>
       </c>
       <c r="R3">
-        <v>791.4531620127281</v>
+        <v>3663.03898572358</v>
       </c>
       <c r="S3">
-        <v>0.0007903668834310262</v>
+        <v>0.002570664557844045</v>
       </c>
       <c r="T3">
-        <v>0.0007903668834310262</v>
+        <v>0.002570664557844046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N4">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q4">
-        <v>118.32917319822</v>
+        <v>0.08348557748666668</v>
       </c>
       <c r="R4">
-        <v>1064.96255878398</v>
+        <v>0.7513701973800001</v>
       </c>
       <c r="S4">
-        <v>0.001063500885404624</v>
+        <v>5.273000761807365E-07</v>
       </c>
       <c r="T4">
-        <v>0.001063500885404624</v>
+        <v>5.273000761807365E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N5">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="O5">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P5">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q5">
-        <v>62.71174062803667</v>
+        <v>406.6943418615884</v>
       </c>
       <c r="R5">
-        <v>564.40566565233</v>
+        <v>3660.249076754295</v>
       </c>
       <c r="S5">
-        <v>0.0005636310123747687</v>
+        <v>0.002568706642535226</v>
       </c>
       <c r="T5">
-        <v>0.0005636310123747688</v>
+        <v>0.002568706642535226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.87880433333333</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>248.636413</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05619066666666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N6">
-        <v>0.168572</v>
+        <v>385.837593</v>
       </c>
       <c r="O6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q6">
-        <v>4.657015268026222</v>
+        <v>238.8541766844911</v>
       </c>
       <c r="R6">
-        <v>41.913137412236</v>
+        <v>2149.687590160419</v>
       </c>
       <c r="S6">
-        <v>4.185561114833549E-05</v>
+        <v>0.001508617767924455</v>
       </c>
       <c r="T6">
-        <v>4.185561114833549E-05</v>
+        <v>0.001508617767924455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>248.636413</v>
       </c>
       <c r="I7">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J7">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>139.7989746666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N7">
-        <v>419.396924</v>
+        <v>6.321202</v>
       </c>
       <c r="O7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q7">
-        <v>11586.37186739929</v>
+        <v>174.6312212364918</v>
       </c>
       <c r="R7">
-        <v>104277.3468065936</v>
+        <v>1571.680991128426</v>
       </c>
       <c r="S7">
-        <v>0.1041342249469189</v>
+        <v>0.001102981605131061</v>
       </c>
       <c r="T7">
-        <v>0.1041342249469189</v>
+        <v>0.001102981605131061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.11053</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N8">
-        <v>564.33159</v>
+        <v>657.462113</v>
       </c>
       <c r="O8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q8">
-        <v>15590.37580890963</v>
+        <v>18163.22460663563</v>
       </c>
       <c r="R8">
-        <v>140313.3822801867</v>
+        <v>163469.0214597207</v>
       </c>
       <c r="S8">
-        <v>0.1401208005467212</v>
+        <v>0.1147200511405266</v>
       </c>
       <c r="T8">
-        <v>0.1401208005467212</v>
+        <v>0.1147200511405266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>99.694255</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N9">
-        <v>299.082765</v>
+        <v>0.13486</v>
       </c>
       <c r="O9">
-        <v>0.2331157147689297</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P9">
-        <v>0.2331157147689298</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q9">
-        <v>8262.540653302438</v>
+        <v>3.725678517464445</v>
       </c>
       <c r="R9">
-        <v>74362.86587972194</v>
+        <v>33.53110665718</v>
       </c>
       <c r="S9">
-        <v>0.07426080198970768</v>
+        <v>2.353161618122231E-05</v>
       </c>
       <c r="T9">
-        <v>0.07426080198970768</v>
+        <v>2.353161618122231E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05619066666666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N10">
-        <v>0.168572</v>
+        <v>656.961365</v>
       </c>
       <c r="O10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q10">
-        <v>2.304970890259556</v>
+        <v>18149.39080813153</v>
       </c>
       <c r="R10">
-        <v>20.744738012336</v>
+        <v>163344.5172731837</v>
       </c>
       <c r="S10">
-        <v>2.071626562045306E-05</v>
+        <v>0.1146326760126939</v>
       </c>
       <c r="T10">
-        <v>2.071626562045306E-05</v>
+        <v>0.1146326760126939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7989746666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N11">
-        <v>419.396924</v>
+        <v>385.837593</v>
       </c>
       <c r="O11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q11">
-        <v>5734.627941083924</v>
+        <v>10659.25279156377</v>
       </c>
       <c r="R11">
-        <v>51611.65146975531</v>
+        <v>95933.27512407392</v>
       </c>
       <c r="S11">
-        <v>0.05154081388359257</v>
+        <v>0.06732450056920265</v>
       </c>
       <c r="T11">
-        <v>0.05154081388359257</v>
+        <v>0.06732450056920265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H12">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I12">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J12">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>188.11053</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N12">
-        <v>564.33159</v>
+        <v>6.321202</v>
       </c>
       <c r="O12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q12">
-        <v>7716.393513773881</v>
+        <v>125.9131716920525</v>
       </c>
       <c r="R12">
-        <v>69447.54162396492</v>
+        <v>1133.218545228472</v>
       </c>
       <c r="S12">
-        <v>0.06935222407311187</v>
+        <v>0.0007952753879672338</v>
       </c>
       <c r="T12">
-        <v>0.06935222407311187</v>
+        <v>0.0007952753879672339</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H13">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I13">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J13">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,43 +1243,43 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.694255</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N13">
-        <v>299.082765</v>
+        <v>657.462113</v>
       </c>
       <c r="O13">
-        <v>0.2331157147689297</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P13">
-        <v>0.2331157147689298</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q13">
-        <v>4089.511111592314</v>
+        <v>13096.10734084888</v>
       </c>
       <c r="R13">
-        <v>36805.60000433082</v>
+        <v>117864.9660676399</v>
       </c>
       <c r="S13">
-        <v>0.03675508389435696</v>
+        <v>0.08271582477348964</v>
       </c>
       <c r="T13">
-        <v>0.03675508389435697</v>
+        <v>0.08271582477348965</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05619066666666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N14">
-        <v>0.168572</v>
+        <v>0.13486</v>
       </c>
       <c r="O14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q14">
-        <v>0.02221754610711111</v>
+        <v>2.686300854551111</v>
       </c>
       <c r="R14">
-        <v>0.199957914964</v>
+        <v>24.17670769096</v>
       </c>
       <c r="S14">
-        <v>1.996834704223738E-07</v>
+        <v>1.696684251211417E-05</v>
       </c>
       <c r="T14">
-        <v>1.996834704223738E-07</v>
+        <v>1.696684251211418E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>139.7989746666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N15">
-        <v>419.396924</v>
+        <v>656.961365</v>
       </c>
       <c r="O15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q15">
-        <v>55.27590878764311</v>
+        <v>13086.13285041202</v>
       </c>
       <c r="R15">
-        <v>497.4831790887879</v>
+        <v>117775.1956537081</v>
       </c>
       <c r="S15">
-        <v>0.000496800377694923</v>
+        <v>0.08265282527434789</v>
       </c>
       <c r="T15">
-        <v>0.000496800377694923</v>
+        <v>0.0826528252743479</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>188.11053</v>
+        <v>128.612531</v>
       </c>
       <c r="N16">
-        <v>564.33159</v>
+        <v>385.837593</v>
       </c>
       <c r="O16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q16">
-        <v>74.37808841637001</v>
+        <v>7685.56915166724</v>
       </c>
       <c r="R16">
-        <v>669.4027957473299</v>
+        <v>69170.12236500515</v>
       </c>
       <c r="S16">
-        <v>0.0006684840326992395</v>
+        <v>0.04854253059234915</v>
       </c>
       <c r="T16">
-        <v>0.0006684840326992395</v>
+        <v>0.04854253059234916</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H17">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I17">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J17">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>99.694255</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N17">
-        <v>299.082765</v>
+        <v>6.321202</v>
       </c>
       <c r="O17">
-        <v>0.2331157147689297</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P17">
-        <v>0.2331157147689298</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q17">
-        <v>39.41867641856167</v>
+        <v>0.7785353925028889</v>
       </c>
       <c r="R17">
-        <v>354.768087767055</v>
+        <v>7.006818532526</v>
       </c>
       <c r="S17">
-        <v>0.0003542811644799805</v>
+        <v>4.917277739879519E-06</v>
       </c>
       <c r="T17">
-        <v>0.0003542811644799806</v>
+        <v>4.917277739879519E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H18">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I18">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J18">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05619066666666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N18">
-        <v>0.168572</v>
+        <v>657.462113</v>
       </c>
       <c r="O18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q18">
-        <v>5.904715779092444</v>
+        <v>80.97471401803544</v>
       </c>
       <c r="R18">
-        <v>53.142442011832</v>
+        <v>728.772426162319</v>
       </c>
       <c r="S18">
-        <v>5.30695033980169E-05</v>
+        <v>0.0005114413070598049</v>
       </c>
       <c r="T18">
-        <v>5.306950339801689E-05</v>
+        <v>0.0005114413070598051</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H19">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I19">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J19">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>139.7989746666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N19">
-        <v>419.396924</v>
+        <v>0.13486</v>
       </c>
       <c r="O19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q19">
-        <v>14690.57515391426</v>
+        <v>0.01660970224222222</v>
       </c>
       <c r="R19">
-        <v>132215.1763852283</v>
+        <v>0.14948732018</v>
       </c>
       <c r="S19">
-        <v>0.1320337095326379</v>
+        <v>1.049079077049194E-07</v>
       </c>
       <c r="T19">
-        <v>0.1320337095326379</v>
+        <v>1.049079077049194E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.11053</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N20">
-        <v>564.33159</v>
+        <v>656.961365</v>
       </c>
       <c r="O20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q20">
-        <v>19767.32579617806</v>
+        <v>80.91304061466612</v>
       </c>
       <c r="R20">
-        <v>177905.9321656025</v>
+        <v>728.217365531995</v>
       </c>
       <c r="S20">
-        <v>0.1776617542243865</v>
+        <v>0.0005110517740257888</v>
       </c>
       <c r="T20">
-        <v>0.1776617542243865</v>
+        <v>0.0005110517740257888</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>99.694255</v>
+        <v>128.612531</v>
       </c>
       <c r="N21">
-        <v>299.082765</v>
+        <v>385.837593</v>
       </c>
       <c r="O21">
-        <v>0.2331157147689297</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P21">
-        <v>0.2331157147689298</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q21">
-        <v>10476.22809096468</v>
+        <v>47.52074398328434</v>
       </c>
       <c r="R21">
-        <v>94286.05281868209</v>
+        <v>427.686695849559</v>
       </c>
       <c r="S21">
-        <v>0.09415664412509663</v>
+        <v>0.0003001439611117623</v>
       </c>
       <c r="T21">
-        <v>0.09415664412509663</v>
+        <v>0.0003001439611117623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H22">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I22">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J22">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N22">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q22">
-        <v>1.694798651092444</v>
+        <v>269.4236061199778</v>
       </c>
       <c r="R22">
-        <v>15.253187859832</v>
+        <v>2424.8124550798</v>
       </c>
       <c r="S22">
-        <v>1.523225268379117E-05</v>
+        <v>0.001701696176859317</v>
       </c>
       <c r="T22">
-        <v>1.523225268379117E-05</v>
+        <v>0.001701696176859317</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H23">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I23">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J23">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N23">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q23">
-        <v>4216.556373938261</v>
+        <v>28022.48897784319</v>
       </c>
       <c r="R23">
-        <v>37949.00736544435</v>
+        <v>252202.4008005887</v>
       </c>
       <c r="S23">
-        <v>0.03789692191569632</v>
+        <v>0.1769917753177241</v>
       </c>
       <c r="T23">
-        <v>0.03789692191569632</v>
+        <v>0.1769917753177242</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H24">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I24">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J24">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N24">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q24">
-        <v>5673.708667518061</v>
+        <v>5.748031390444445</v>
       </c>
       <c r="R24">
-        <v>51063.37800766254</v>
+        <v>51.732282514</v>
       </c>
       <c r="S24">
-        <v>0.05099329293314214</v>
+        <v>3.630492213525965E-05</v>
       </c>
       <c r="T24">
-        <v>0.05099329293314214</v>
+        <v>3.630492213525965E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>127.8666333333333</v>
+      </c>
+      <c r="H25">
+        <v>383.5999</v>
+      </c>
+      <c r="I25">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="J25">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N25">
+        <v>656.961365</v>
+      </c>
+      <c r="O25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q25">
+        <v>28001.14599087372</v>
+      </c>
+      <c r="R25">
+        <v>252010.3139178635</v>
+      </c>
+      <c r="S25">
+        <v>0.1768569716906339</v>
+      </c>
+      <c r="T25">
+        <v>0.1768569716906339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>127.8666333333333</v>
+      </c>
+      <c r="H26">
+        <v>383.5999</v>
+      </c>
+      <c r="I26">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="J26">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>128.612531</v>
+      </c>
+      <c r="N26">
+        <v>385.837593</v>
+      </c>
+      <c r="O26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q26">
+        <v>16445.25134344897</v>
+      </c>
+      <c r="R26">
+        <v>148007.2620910407</v>
+      </c>
+      <c r="S26">
+        <v>0.1038692256467522</v>
+      </c>
+      <c r="T26">
+        <v>0.1038692256467522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>30.16156866666667</v>
-      </c>
-      <c r="H25">
-        <v>90.484706</v>
-      </c>
-      <c r="I25">
-        <v>0.115930719684436</v>
-      </c>
-      <c r="J25">
-        <v>0.115930719684436</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>99.694255</v>
-      </c>
-      <c r="N25">
-        <v>299.082765</v>
-      </c>
-      <c r="O25">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="P25">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="Q25">
-        <v>3006.935117854677</v>
-      </c>
-      <c r="R25">
-        <v>27062.41606069209</v>
-      </c>
-      <c r="S25">
-        <v>0.02702527258291372</v>
-      </c>
-      <c r="T25">
-        <v>0.02702527258291373</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H27">
+        <v>16.711339</v>
+      </c>
+      <c r="I27">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J27">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>2.107067333333334</v>
+      </c>
+      <c r="N27">
+        <v>6.321202</v>
+      </c>
+      <c r="O27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="P27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="Q27">
+        <v>11.73730550105311</v>
+      </c>
+      <c r="R27">
+        <v>105.635749509478</v>
+      </c>
+      <c r="S27">
+        <v>7.41335482269417E-05</v>
+      </c>
+      <c r="T27">
+        <v>7.413354822694171E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H28">
+        <v>16.711339</v>
+      </c>
+      <c r="I28">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J28">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>219.1540376666667</v>
+      </c>
+      <c r="N28">
+        <v>657.462113</v>
+      </c>
+      <c r="O28">
+        <v>0.3852203158260555</v>
+      </c>
+      <c r="P28">
+        <v>0.3852203158260556</v>
+      </c>
+      <c r="Q28">
+        <v>1220.785805555479</v>
+      </c>
+      <c r="R28">
+        <v>10987.07224999931</v>
+      </c>
+      <c r="S28">
+        <v>0.007710558729411351</v>
+      </c>
+      <c r="T28">
+        <v>0.007710558729411354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H29">
+        <v>16.711339</v>
+      </c>
+      <c r="I29">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J29">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.04495333333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.13486</v>
+      </c>
+      <c r="O29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="P29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="Q29">
+        <v>0.2504101308377778</v>
+      </c>
+      <c r="R29">
+        <v>2.25369117754</v>
+      </c>
+      <c r="S29">
+        <v>1.581605889811045E-06</v>
+      </c>
+      <c r="T29">
+        <v>1.581605889811046E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H30">
+        <v>16.711339</v>
+      </c>
+      <c r="I30">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J30">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N30">
+        <v>656.961365</v>
+      </c>
+      <c r="O30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q30">
+        <v>1219.856008935304</v>
+      </c>
+      <c r="R30">
+        <v>10978.70408041774</v>
+      </c>
+      <c r="S30">
+        <v>0.007704686076392583</v>
+      </c>
+      <c r="T30">
+        <v>0.007704686076392585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H31">
+        <v>16.711339</v>
+      </c>
+      <c r="I31">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J31">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>128.612531</v>
+      </c>
+      <c r="N31">
+        <v>385.837593</v>
+      </c>
+      <c r="O31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q31">
+        <v>716.4292017296698</v>
+      </c>
+      <c r="R31">
+        <v>6447.862815567029</v>
+      </c>
+      <c r="S31">
+        <v>0.004525011193825573</v>
+      </c>
+      <c r="T31">
+        <v>0.004525011193825574</v>
       </c>
     </row>
   </sheetData>
